--- a/public/excels/template/order.xlsx
+++ b/public/excels/template/order.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="21840" windowHeight="18684"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="21840" windowHeight="18684" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn Vận chuyển" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoá đơn thanh toán" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hóa đơn Vận chuyển'!$A$25:$P$33</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>HÓA ĐƠN VẬN CHUYỂN</t>
   </si>
@@ -145,15 +146,6 @@
     <t>Tổng thể tích</t>
   </si>
   <si>
-    <t>THÔNG TIN VẬN CHUYỂN</t>
-  </si>
-  <si>
-    <t>TÊN NGƯỜI NHẬN</t>
-  </si>
-  <si>
-    <t>ĐỊA CHỈ</t>
-  </si>
-  <si>
     <t>Tracking
 Web-order</t>
   </si>
@@ -171,18 +163,34 @@
   </si>
   <si>
     <t>Số: PQ0003-2188</t>
+  </si>
+  <si>
+    <t>NỘI DUNG THANH TOÁN</t>
+  </si>
+  <si>
+    <t>Date time</t>
+  </si>
+  <si>
+    <t>Price Debt</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Deposit ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ [$₫-42A]"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +270,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,9 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -481,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,34 +535,34 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,9 +649,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,21 +935,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7" style="15" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="10" customWidth="1"/>
     <col min="10" max="10" width="8" style="10" customWidth="1"/>
@@ -936,82 +957,82 @@
     <col min="12" max="12" width="13.44140625" style="10" customWidth="1"/>
     <col min="13" max="13" width="8.77734375" style="10" customWidth="1"/>
     <col min="14" max="14" width="22.109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="58">
         <v>44168</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="20"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,200 +1045,200 @@
       <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="50">
         <f>11000000/350</f>
         <v>31428.571428571428</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="53">
         <f>IF(I24&gt;(J24*350),I24,J24)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="56">
         <f>L5*M5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="20"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="20"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="20"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="20"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="20"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="20"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="20"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="A13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
@@ -1225,7 +1246,7 @@
         <f>N5</f>
         <v>0</v>
       </c>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1236,205 +1257,205 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="30"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="20"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="20"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="20"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="20"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="29">
+      <c r="I24" s="27">
         <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="27">
         <f>SUM(J26:J27)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37" t="s">
-        <v>42</v>
+      <c r="K24" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -1447,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -1455,7 +1476,7 @@
       <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1486,164 +1507,388 @@
         <v>35</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>1</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="23"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="23"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="23"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A25:P33"/>
-  <mergeCells count="38">
+  <mergeCells count="29">
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
@@ -1666,25 +1911,907 @@
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="M5:M12"/>
     <mergeCell ref="N5:N12"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:O24"/>
     <mergeCell ref="A20:N20"/>
     <mergeCell ref="A21:N21"/>
     <mergeCell ref="A22:N22"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A23:O23"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A28:N29"/>
-    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8" style="10" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>44168</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="50">
+        <f>11000000/350</f>
+        <v>31428.571428571428</v>
+      </c>
+      <c r="M5" s="53">
+        <f>IF(I24&gt;(J24*350),I24,J24)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="56">
+        <f>L5*M5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>7</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>8</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8">
+        <f>N5</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:O24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/excels/template/order.xlsx
+++ b/public/excels/template/order.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="21840" windowHeight="18684" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="21840" windowHeight="18684"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn Vận chuyển" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>HÓA ĐƠN VẬN CHUYỂN</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Deposit ID</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,9 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,18 +556,87 @@
     <xf numFmtId="44" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -580,76 +649,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -937,17 +946,17 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J35" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="67" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="10" customWidth="1"/>
     <col min="7" max="7" width="7" style="15" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="10" customWidth="1"/>
@@ -957,82 +966,82 @@
     <col min="12" max="12" width="13.44140625" style="10" customWidth="1"/>
     <col min="13" max="13" width="8.77734375" style="10" customWidth="1"/>
     <col min="14" max="14" width="22.109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="35">
         <v>44168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="19"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,23 +1054,23 @@
       <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="47" t="s">
         <v>40</v>
       </c>
@@ -1077,168 +1086,168 @@
         <f>L5*M5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="48"/>
       <c r="L6" s="51"/>
       <c r="M6" s="54"/>
       <c r="N6" s="48"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="48"/>
       <c r="L7" s="51"/>
       <c r="M7" s="54"/>
       <c r="N7" s="48"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="48"/>
       <c r="L8" s="51"/>
       <c r="M8" s="54"/>
       <c r="N8" s="48"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="48"/>
       <c r="L9" s="51"/>
       <c r="M9" s="54"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="19"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="48"/>
       <c r="L10" s="51"/>
       <c r="M10" s="54"/>
       <c r="N10" s="48"/>
-      <c r="O10" s="19"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="48"/>
       <c r="L11" s="51"/>
       <c r="M11" s="54"/>
       <c r="N11" s="48"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="49"/>
       <c r="L12" s="52"/>
       <c r="M12" s="55"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="19"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
@@ -1246,7 +1255,7 @@
         <f>N5</f>
         <v>0</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1255,7 +1264,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
       <c r="H14" s="9"/>
@@ -1263,28 +1272,28 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="28"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="19"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="19"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -1303,7 +1312,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="19"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -1322,26 +1331,26 @@
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
@@ -1362,105 +1371,105 @@
       <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="27">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="26">
         <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <f>SUM(J26:J27)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1476,8 +1485,8 @@
       <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>25</v>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>29</v>
@@ -1510,391 +1519,392 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
+    <row r="26" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="23"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="23"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="22"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="22"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="23"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="22"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="22"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="22"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="23"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="22"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="23"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="22"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="22"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="23"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="22"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="22"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="23"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="22"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="22"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="23"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="22"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A25:P33"/>
   <mergeCells count="29">
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:O23"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B8:J8"/>
@@ -1911,13 +1921,12 @@
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="M5:M12"/>
     <mergeCell ref="N5:N12"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,19 +1938,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7" style="30" customWidth="1"/>
+    <col min="7" max="7" width="7" style="29" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="10" customWidth="1"/>
     <col min="10" max="10" width="8" style="10" customWidth="1"/>
@@ -1949,111 +1958,111 @@
     <col min="12" max="12" width="13.44140625" style="10" customWidth="1"/>
     <col min="13" max="13" width="8.77734375" style="10" customWidth="1"/>
     <col min="14" max="14" width="22.109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="35">
         <v>44168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="19"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="47" t="s">
         <v>40</v>
       </c>
@@ -2069,168 +2078,168 @@
         <f>L5*M5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="48"/>
       <c r="L6" s="51"/>
       <c r="M6" s="54"/>
       <c r="N6" s="48"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="48"/>
       <c r="L7" s="51"/>
       <c r="M7" s="54"/>
       <c r="N7" s="48"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="48"/>
       <c r="L8" s="51"/>
       <c r="M8" s="54"/>
       <c r="N8" s="48"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="48"/>
       <c r="L9" s="51"/>
       <c r="M9" s="54"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="19"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="48"/>
       <c r="L10" s="51"/>
       <c r="M10" s="54"/>
       <c r="N10" s="48"/>
-      <c r="O10" s="19"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>7</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="48"/>
       <c r="L11" s="51"/>
       <c r="M11" s="54"/>
       <c r="N11" s="48"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="49"/>
       <c r="L12" s="52"/>
       <c r="M12" s="55"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="19"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
@@ -2238,7 +2247,7 @@
         <f>N5</f>
         <v>0</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2249,34 +2258,34 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="28"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="19"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="19"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -2295,7 +2304,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="19"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -2314,26 +2323,26 @@
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="19"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
@@ -2354,200 +2363,200 @@
       <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+    <row r="26" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2560,11 +2569,11 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2577,11 +2586,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2594,11 +2603,11 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2611,11 +2620,11 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2628,11 +2637,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2645,11 +2654,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2662,11 +2671,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2679,11 +2688,11 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2696,11 +2705,11 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2713,11 +2722,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2730,11 +2739,11 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2747,11 +2756,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2764,11 +2773,11 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2782,16 +2791,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:O24"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B8:J8"/>
@@ -2804,13 +2810,16 @@
     <mergeCell ref="A16:N16"/>
     <mergeCell ref="A17:N17"/>
     <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
